--- a/PlannerTasks.xlsx
+++ b/PlannerTasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00c18fdba008d584/Customers (not shared)/Applepark/Power BI/Planner/PlannerWithFlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F20900D7-23EB-4529-9A73-08F78B47F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE8DC39-43BC-44C7-99F8-6B3170D0CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Lists plan names</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>Plan Name</t>
+  </si>
+  <si>
+    <t>Team Name</t>
   </si>
   <si>
     <t>Lists buckets for each plan</t>
@@ -265,15 +269,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="72">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1649,6 +1655,9 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1692,11 +1701,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0086D036-F256-4C9D-B2A1-B21C088B14C5}" name="Plan_tbl" displayName="Plan_tbl" ref="C4:D5" insertRow="1" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
-  <autoFilter ref="C4:D5" xr:uid="{0086D036-F256-4C9D-B2A1-B21C088B14C5}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DC1DDFC2-6F8E-4F3F-AE51-F63302EFC0AE}" name="Plan ID" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{E2F1B8EB-A260-4061-B1DA-A1D4C9E02B24}" name="Plan Name" dataDxfId="67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0086D036-F256-4C9D-B2A1-B21C088B14C5}" name="Plan_tbl" displayName="Plan_tbl" ref="C4:E5" insertRow="1" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="C4:E5" xr:uid="{0086D036-F256-4C9D-B2A1-B21C088B14C5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DC1DDFC2-6F8E-4F3F-AE51-F63302EFC0AE}" name="Plan ID" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{E2F1B8EB-A260-4061-B1DA-A1D4C9E02B24}" name="Plan Name" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{03F94C97-CE80-488C-BE65-16C507A1764D}" name="Team Name" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2104,35 +2114,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA97DDB5-27E3-41F9-B292-6015C745C1B8}">
-  <dimension ref="C2:D5"/>
+  <dimension ref="C2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,7 +2161,7 @@
   <dimension ref="C2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,18 +2174,18 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
@@ -2234,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBEBD98-CDDF-46A5-BB8F-EECC25228C81}">
-  <dimension ref="C2:AU4"/>
+  <dimension ref="C2:AU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AU37" sqref="C5:AU37"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,145 +2294,192 @@
   <sheetData>
     <row r="2" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AO4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AP4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AQ4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AR4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AS4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AT4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2433,7 +2494,7 @@
   <dimension ref="C2:E5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2446,7 +2507,7 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
@@ -2454,10 +2515,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
@@ -2478,7 +2539,7 @@
   <dimension ref="C2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,24 +2552,24 @@
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -2531,7 +2592,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,21 +2606,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -2574,18 +2635,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2721,18 +2782,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PlannerTasks.xlsx
+++ b/PlannerTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00c18fdba008d584/Customers (not shared)/Applepark/Power BI/Planner/PlannerWithFlow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE8DC39-43BC-44C7-99F8-6B3170D0CA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3E03FF-A982-4771-9376-7119FA789572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9468" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="5" r:id="rId1"/>
@@ -269,12 +269,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA97DDB5-27E3-41F9-B292-6015C745C1B8}">
   <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,7 +2159,7 @@
   <dimension ref="C2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2248,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBEBD98-CDDF-46A5-BB8F-EECC25228C81}">
-  <dimension ref="C2:AU5"/>
+  <dimension ref="C2:AU4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,53 +2432,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:47" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2493,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4FB5A0-8A8A-45ED-8601-84875CAA8B86}">
   <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2490,7 @@
   <dimension ref="C2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2591,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353B38D8-CA51-4B54-B8E6-4750BDE5CEE1}">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2641,15 +2592,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025BF94C250D4F3428D6504CA93470C05" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b958e8da78ae46a2ec6ca96c45141b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b67ef449dd8e11e8882ef8210e0286c" ns2:_="">
     <xsd:import namespace="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab"/>
@@ -2781,24 +2723,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F530B1-F3B4-4D56-BB52-37C0F4213D70}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2814,4 +2764,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PlannerTasks.xlsx
+++ b/PlannerTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Downloads\Planner-PowerBI-with-PowerAutomate-main\Planner-PowerBI-with-PowerAutomate-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A868E09-F295-4C7F-AD65-02FD85278A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E26A3-C7EF-43B5-A0F5-C4B19B8CB2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9468" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="5" r:id="rId1"/>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +279,87 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1454,87 +1535,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1727,76 +1727,76 @@
   <autoFilter ref="C4:AU5" xr:uid="{3B8FAFF0-5141-46CD-87EE-EA0FD8F708B4}"/>
   <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{2E459D10-625B-479F-964E-CB18910F1C5B}" name="Created By User Display Name" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{19E3C2A4-3DE3-4A57-B57F-76B5158D003B}" name="Created By User ID" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{C61E81F3-4EE0-49BB-876D-5EBC59B7C14E}" name="Title" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{2EA606A4-DC3C-403A-8142-44278ADC2FA2}" name="Start Date Time" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{7F24A2FD-B614-4A10-9E8D-04F46B7B9657}" name="Created Date Time" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{0F0F9C50-58D6-4516-BD68-D67DF972F796}" name="Due Date Time" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{B41A123B-E630-42EF-98C4-80C71CF60B6D}" name="Completed Date Time" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{3C291AF8-417E-4A59-84DB-E1D5CA5A56D7}" name="Assigned To User Id" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{E0B0DAB3-B8FF-48B5-BFDB-307801E32EBD}" name="Assigned To User Name" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{C21696FF-CB83-433A-BEFC-27B3A4660644}" name="Assigned By User Id" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{3F540AA4-DE5A-45BF-9738-ADF98DA6D849}" name="Assigned By User Name" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{BAF7F7D6-EAA9-4CB9-8FB4-F18C6C3428D4}" name="Assigned Date Time" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{E01238AC-28AE-4663-9298-59297CAC374C}" name="Order Hint" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{0084CE79-479D-45ED-BB5B-118B7E8C30E1}" name="Plan Id" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{B814B7EB-AFA9-4858-ACC5-B2BDB7741C34}" name="Bucket Id" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{7E6E90BE-7BB9-408F-BACD-16130C28F4DB}" name="Bucket Name" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{3E0B33D4-61E0-4809-ACAB-DF32CF5BCB5D}" name="Percent Complete" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{AD5581C5-B64B-4542-AA4A-240691949540}" name="Reference Count" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{8156E264-14BA-4AC7-B844-A088235DA871}" name="Has Description" dataDxfId="41"/>
-    <tableColumn id="20" xr3:uid="{C48C896F-A466-46DE-A056-E53DE3145B7A}" name="Pink" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{E04DDFCE-339A-4E7B-8055-C5DAEE2A4549}" name="Red" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{CA1A01B6-46D8-45BE-B4CE-F8CD2C01B9AD}" name="Yellow" dataDxfId="38"/>
-    <tableColumn id="23" xr3:uid="{9AAE0049-870F-4F49-98EA-C2C9170EA2C4}" name="Green" dataDxfId="37"/>
-    <tableColumn id="24" xr3:uid="{6E09281F-6B11-435F-BE12-731F448DBE03}" name="Blue" dataDxfId="36"/>
-    <tableColumn id="25" xr3:uid="{E06796FB-1CC3-4440-8584-F2E0BE4AD908}" name="Purple" dataDxfId="35"/>
-    <tableColumn id="26" xr3:uid="{936C2ACF-8EBE-42EB-BEFC-614115AAD681}" name="Bronze" dataDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{49EC973B-D185-4996-AF72-B9F677434E20}" name="Lime" dataDxfId="33"/>
-    <tableColumn id="28" xr3:uid="{F07571BD-15CB-4066-A500-50F2825A1737}" name="Aqua" dataDxfId="32"/>
-    <tableColumn id="29" xr3:uid="{B02EB03A-390A-4D71-A2F2-414515BA803E}" name="Gray" dataDxfId="31"/>
-    <tableColumn id="30" xr3:uid="{E2B4E206-0393-480B-8EBE-24031F82F509}" name="Silver" dataDxfId="30"/>
-    <tableColumn id="31" xr3:uid="{CCF19BB1-97D5-45CD-B088-AE74B8306D82}" name="Brown" dataDxfId="29"/>
-    <tableColumn id="32" xr3:uid="{E7FBBE36-3C9A-4652-BA47-F20033435ED7}" name="Cranberry" dataDxfId="28"/>
-    <tableColumn id="33" xr3:uid="{CB771C00-0A1D-40BA-8D5C-0E521CED7B3F}" name="Orange" dataDxfId="27"/>
-    <tableColumn id="34" xr3:uid="{4C415EA4-21D5-4B14-A9F7-BA7E8A94D354}" name="Peach" dataDxfId="26"/>
-    <tableColumn id="35" xr3:uid="{D1675B1C-927F-4144-9C1B-ADC4510F9986}" name="Marigold" dataDxfId="25"/>
-    <tableColumn id="36" xr3:uid="{8F80A39C-3792-457A-8DFE-14BC72A837E3}" name="Light green" dataDxfId="24"/>
-    <tableColumn id="37" xr3:uid="{4CB7B1B0-F5BE-4982-912F-1E06B9C61B29}" name="Dark green" dataDxfId="23"/>
-    <tableColumn id="38" xr3:uid="{F3C8412B-E870-47ED-9DBE-6610A8D9B783}" name="Teal" dataDxfId="22"/>
-    <tableColumn id="39" xr3:uid="{0F75FB26-236C-44D4-ACE0-EF6AA680C953}" name="Light blue" dataDxfId="21"/>
-    <tableColumn id="40" xr3:uid="{6117C392-8853-447C-8426-C1DC4CBBAC61}" name="Dark blue" dataDxfId="20"/>
-    <tableColumn id="41" xr3:uid="{CB58BF13-E845-4AAA-B5AF-52E4365071B9}" name="Lavender" dataDxfId="19"/>
-    <tableColumn id="42" xr3:uid="{37317792-D085-421D-B327-101FB71568C4}" name="Plum" dataDxfId="18"/>
-    <tableColumn id="43" xr3:uid="{4356B6CC-0814-4FF9-8BCD-0B2E8BD2EA5F}" name="Light gray" dataDxfId="17"/>
-    <tableColumn id="44" xr3:uid="{BC284A71-1A48-4C82-AF44-EF4B85E11A65}" name="Dark gray" dataDxfId="16"/>
-    <tableColumn id="45" xr3:uid="{04C79E8C-8306-4860-807D-EA3FC5968ABA}" name="Task ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{19E3C2A4-3DE3-4A57-B57F-76B5158D003B}" name="Created By User ID" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C61E81F3-4EE0-49BB-876D-5EBC59B7C14E}" name="Title" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2EA606A4-DC3C-403A-8142-44278ADC2FA2}" name="Start Date Time" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7F24A2FD-B614-4A10-9E8D-04F46B7B9657}" name="Created Date Time" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{0F0F9C50-58D6-4516-BD68-D67DF972F796}" name="Due Date Time" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{B41A123B-E630-42EF-98C4-80C71CF60B6D}" name="Completed Date Time" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{3C291AF8-417E-4A59-84DB-E1D5CA5A56D7}" name="Assigned To User Id" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{E0B0DAB3-B8FF-48B5-BFDB-307801E32EBD}" name="Assigned To User Name" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{C21696FF-CB83-433A-BEFC-27B3A4660644}" name="Assigned By User Id" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{3F540AA4-DE5A-45BF-9738-ADF98DA6D849}" name="Assigned By User Name" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{BAF7F7D6-EAA9-4CB9-8FB4-F18C6C3428D4}" name="Assigned Date Time" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{E01238AC-28AE-4663-9298-59297CAC374C}" name="Order Hint" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{0084CE79-479D-45ED-BB5B-118B7E8C30E1}" name="Plan Id" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{B814B7EB-AFA9-4858-ACC5-B2BDB7741C34}" name="Bucket Id" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{7E6E90BE-7BB9-408F-BACD-16130C28F4DB}" name="Bucket Name" dataDxfId="47"/>
+    <tableColumn id="17" xr3:uid="{3E0B33D4-61E0-4809-ACAB-DF32CF5BCB5D}" name="Percent Complete" dataDxfId="46"/>
+    <tableColumn id="18" xr3:uid="{AD5581C5-B64B-4542-AA4A-240691949540}" name="Reference Count" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{8156E264-14BA-4AC7-B844-A088235DA871}" name="Has Description" dataDxfId="44"/>
+    <tableColumn id="20" xr3:uid="{C48C896F-A466-46DE-A056-E53DE3145B7A}" name="Pink" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{E04DDFCE-339A-4E7B-8055-C5DAEE2A4549}" name="Red" dataDxfId="42"/>
+    <tableColumn id="22" xr3:uid="{CA1A01B6-46D8-45BE-B4CE-F8CD2C01B9AD}" name="Yellow" dataDxfId="41"/>
+    <tableColumn id="23" xr3:uid="{9AAE0049-870F-4F49-98EA-C2C9170EA2C4}" name="Green" dataDxfId="40"/>
+    <tableColumn id="24" xr3:uid="{6E09281F-6B11-435F-BE12-731F448DBE03}" name="Blue" dataDxfId="39"/>
+    <tableColumn id="25" xr3:uid="{E06796FB-1CC3-4440-8584-F2E0BE4AD908}" name="Purple" dataDxfId="38"/>
+    <tableColumn id="26" xr3:uid="{936C2ACF-8EBE-42EB-BEFC-614115AAD681}" name="Bronze" dataDxfId="37"/>
+    <tableColumn id="27" xr3:uid="{49EC973B-D185-4996-AF72-B9F677434E20}" name="Lime" dataDxfId="36"/>
+    <tableColumn id="28" xr3:uid="{F07571BD-15CB-4066-A500-50F2825A1737}" name="Aqua" dataDxfId="35"/>
+    <tableColumn id="29" xr3:uid="{B02EB03A-390A-4D71-A2F2-414515BA803E}" name="Gray" dataDxfId="34"/>
+    <tableColumn id="30" xr3:uid="{E2B4E206-0393-480B-8EBE-24031F82F509}" name="Silver" dataDxfId="33"/>
+    <tableColumn id="31" xr3:uid="{CCF19BB1-97D5-45CD-B088-AE74B8306D82}" name="Brown" dataDxfId="32"/>
+    <tableColumn id="32" xr3:uid="{E7FBBE36-3C9A-4652-BA47-F20033435ED7}" name="Cranberry" dataDxfId="31"/>
+    <tableColumn id="33" xr3:uid="{CB771C00-0A1D-40BA-8D5C-0E521CED7B3F}" name="Orange" dataDxfId="30"/>
+    <tableColumn id="34" xr3:uid="{4C415EA4-21D5-4B14-A9F7-BA7E8A94D354}" name="Peach" dataDxfId="29"/>
+    <tableColumn id="35" xr3:uid="{D1675B1C-927F-4144-9C1B-ADC4510F9986}" name="Marigold" dataDxfId="28"/>
+    <tableColumn id="36" xr3:uid="{8F80A39C-3792-457A-8DFE-14BC72A837E3}" name="Light green" dataDxfId="27"/>
+    <tableColumn id="37" xr3:uid="{4CB7B1B0-F5BE-4982-912F-1E06B9C61B29}" name="Dark green" dataDxfId="26"/>
+    <tableColumn id="38" xr3:uid="{F3C8412B-E870-47ED-9DBE-6610A8D9B783}" name="Teal" dataDxfId="25"/>
+    <tableColumn id="39" xr3:uid="{0F75FB26-236C-44D4-ACE0-EF6AA680C953}" name="Light blue" dataDxfId="24"/>
+    <tableColumn id="40" xr3:uid="{6117C392-8853-447C-8426-C1DC4CBBAC61}" name="Dark blue" dataDxfId="23"/>
+    <tableColumn id="41" xr3:uid="{CB58BF13-E845-4AAA-B5AF-52E4365071B9}" name="Lavender" dataDxfId="22"/>
+    <tableColumn id="42" xr3:uid="{37317792-D085-421D-B327-101FB71568C4}" name="Plum" dataDxfId="21"/>
+    <tableColumn id="43" xr3:uid="{4356B6CC-0814-4FF9-8BCD-0B2E8BD2EA5F}" name="Light gray" dataDxfId="20"/>
+    <tableColumn id="44" xr3:uid="{BC284A71-1A48-4C82-AF44-EF4B85E11A65}" name="Dark gray" dataDxfId="19"/>
+    <tableColumn id="45" xr3:uid="{04C79E8C-8306-4860-807D-EA3FC5968ABA}" name="Task ID" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0BB0DD4-7A9B-4AE1-BE3C-7829BBAB7700}" name="Assignments_tbl" displayName="Assignments_tbl" ref="C4:E5" insertRow="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0BB0DD4-7A9B-4AE1-BE3C-7829BBAB7700}" name="Assignments_tbl" displayName="Assignments_tbl" ref="C4:E5" insertRow="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="C4:E5" xr:uid="{6765AC4E-906D-4025-9CB2-9ADDAF4C4370}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{25BA9D37-501E-4F02-8602-955918BEA87A}" name="Plan ID" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{9526C529-5F41-4654-978E-F0CF011C4979}" name="Task ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{31883661-6848-498C-8BFC-956FCB7706FD}" name="UserAssignmentID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{25BA9D37-501E-4F02-8602-955918BEA87A}" name="Plan ID" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{9526C529-5F41-4654-978E-F0CF011C4979}" name="Task ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{31883661-6848-498C-8BFC-956FCB7706FD}" name="UserAssignmentID" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C82BA1FC-45F4-46FA-B8A9-BF26EFB3F239}" name="User_tbl" displayName="User_tbl" ref="C4:G5" insertRow="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C82BA1FC-45F4-46FA-B8A9-BF26EFB3F239}" name="User_tbl" displayName="User_tbl" ref="C4:G5" insertRow="1" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="C4:G5" xr:uid="{C82BA1FC-45F4-46FA-B8A9-BF26EFB3F239}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FA0A3F04-C404-4753-A359-96D1AC675CAB}" name="Group ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D093ED44-E1C4-4F9A-B931-0F1BCB8C046E}" name="User ID" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{941BA755-58A4-47C2-AA69-566F3CA1AEA7}" name="User Name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{113CA927-D70C-4BBB-B346-487626583891}" name="User first name" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9E9ED933-0DE8-4B02-89DD-490D52C7C9DE}" name="user surname" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FA0A3F04-C404-4753-A359-96D1AC675CAB}" name="Group ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D093ED44-E1C4-4F9A-B931-0F1BCB8C046E}" name="User ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{941BA755-58A4-47C2-AA69-566F3CA1AEA7}" name="User Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{113CA927-D70C-4BBB-B346-487626583891}" name="User first name" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{9E9ED933-0DE8-4B02-89DD-490D52C7C9DE}" name="user surname" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1806,9 +1806,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01ABAAFF-B3E2-4F16-966D-90575F6EA5BF}" name="Checklist_tbl" displayName="Checklist_tbl" ref="B4:E5" insertRow="1" totalsRowShown="0">
   <autoFilter ref="B4:E5" xr:uid="{01ABAAFF-B3E2-4F16-966D-90575F6EA5BF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D386C20E-4D87-4122-B186-7D310159AB4F}" name="TaskID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8A34804A-FFD7-4B4F-B4F0-B8FAD8F28324}" name="ChecklistID" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3CC38ABB-C04A-4970-8D95-509B54B0A76E}" name="Checklist title" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D386C20E-4D87-4122-B186-7D310159AB4F}" name="TaskID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8A34804A-FFD7-4B4F-B4F0-B8FAD8F28324}" name="ChecklistID" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3CC38ABB-C04A-4970-8D95-509B54B0A76E}" name="Checklist title" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{F00AE63D-BA73-4B1B-9D48-425CD42BE2AA}" name="Checklist is checked"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2118,19 +2118,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2162,20 +2162,20 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2186,52 +2186,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -2248,61 +2248,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBEBD98-CDDF-46A5-BB8F-EECC25228C81}">
   <dimension ref="C2:AU4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:47">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:47">
+    <row r="4" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
@@ -2448,20 +2448,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2493,20 +2493,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="40.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2542,25 +2542,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353B38D8-CA51-4B54-B8E6-4750BDE5CEE1}">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
     </row>
   </sheetData>
@@ -2586,15 +2586,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025BF94C250D4F3428D6504CA93470C05" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b958e8da78ae46a2ec6ca96c45141b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b67ef449dd8e11e8882ef8210e0286c" ns2:_="">
     <xsd:import namespace="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab"/>
@@ -2726,6 +2717,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2733,13 +2733,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F530B1-F3B4-4D56-BB52-37C0F4213D70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F530B1-F3B4-4D56-BB52-37C0F4213D70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>